--- a/input/EL/align_student_under30.xlsx
+++ b/input/EL/align_student_under30.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsEU\input\EL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACC6D9-22DC-4F09-9C9D-F53B19094281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46285A99-38BC-4434-B1E4-B9E5E78B1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
-    <sheet name="EL" sheetId="2" r:id="rId2"/>
+    <sheet name="Student_share" sheetId="2" r:id="rId2"/>
     <sheet name="PL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>

--- a/input/EL/align_student_under30.xlsx
+++ b/input/EL/align_student_under30.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsEU\input\EL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/EL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46285A99-38BC-4434-B1E4-B9E5E78B1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72FE02-56D5-A34D-873A-A07B3B685858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UK" sheetId="1" r:id="rId1"/>
-    <sheet name="Student_share" sheetId="2" r:id="rId2"/>
-    <sheet name="PL" sheetId="3" r:id="rId3"/>
+    <sheet name="Student_share" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>propStudentsUnder30</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>HU</t>
   </si>
 </sst>
 </file>
@@ -350,285 +342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2011</v>
-      </c>
-      <c r="C1">
-        <v>2012</v>
-      </c>
-      <c r="D1">
-        <v>2013</v>
-      </c>
-      <c r="E1">
-        <v>2014</v>
-      </c>
-      <c r="F1">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2016</v>
-      </c>
-      <c r="H1">
-        <v>2017</v>
-      </c>
-      <c r="I1">
-        <v>2018</v>
-      </c>
-      <c r="J1">
-        <v>2019</v>
-      </c>
-      <c r="K1">
-        <v>2020</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
-      </c>
-      <c r="M1">
-        <v>2022</v>
-      </c>
-      <c r="N1">
-        <v>2023</v>
-      </c>
-      <c r="O1">
-        <v>2024</v>
-      </c>
-      <c r="P1">
-        <v>2025</v>
-      </c>
-      <c r="Q1">
-        <v>2026</v>
-      </c>
-      <c r="R1">
-        <v>2027</v>
-      </c>
-      <c r="S1">
-        <v>2028</v>
-      </c>
-      <c r="T1">
-        <v>2029</v>
-      </c>
-      <c r="U1">
-        <v>2030</v>
-      </c>
-      <c r="V1">
-        <v>2031</v>
-      </c>
-      <c r="W1">
-        <v>2032</v>
-      </c>
-      <c r="X1">
-        <v>2033</v>
-      </c>
-      <c r="Y1">
-        <v>2034</v>
-      </c>
-      <c r="Z1">
-        <v>2035</v>
-      </c>
-      <c r="AA1">
-        <v>2036</v>
-      </c>
-      <c r="AB1">
-        <v>2037</v>
-      </c>
-      <c r="AC1">
-        <v>2038</v>
-      </c>
-      <c r="AD1">
-        <v>2039</v>
-      </c>
-      <c r="AE1">
-        <v>2040</v>
-      </c>
-      <c r="AF1">
-        <v>2041</v>
-      </c>
-      <c r="AG1">
-        <v>2042</v>
-      </c>
-      <c r="AH1">
-        <v>2043</v>
-      </c>
-      <c r="AI1">
-        <v>2044</v>
-      </c>
-      <c r="AJ1">
-        <v>2045</v>
-      </c>
-      <c r="AK1">
-        <v>2046</v>
-      </c>
-      <c r="AL1">
-        <v>2047</v>
-      </c>
-      <c r="AM1">
-        <v>2048</v>
-      </c>
-      <c r="AN1">
-        <v>2049</v>
-      </c>
-      <c r="AO1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.33</v>
-      </c>
-      <c r="C2">
-        <v>0.33</v>
-      </c>
-      <c r="D2">
-        <v>0.33</v>
-      </c>
-      <c r="E2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>0.33</v>
-      </c>
-      <c r="G2">
-        <v>0.33</v>
-      </c>
-      <c r="H2">
-        <v>0.33</v>
-      </c>
-      <c r="I2">
-        <v>0.33</v>
-      </c>
-      <c r="J2">
-        <v>0.33</v>
-      </c>
-      <c r="K2">
-        <v>0.33</v>
-      </c>
-      <c r="L2">
-        <v>0.33</v>
-      </c>
-      <c r="M2">
-        <v>0.33</v>
-      </c>
-      <c r="N2">
-        <v>0.33</v>
-      </c>
-      <c r="O2">
-        <v>0.33</v>
-      </c>
-      <c r="P2">
-        <v>0.33</v>
-      </c>
-      <c r="Q2">
-        <v>0.33</v>
-      </c>
-      <c r="R2">
-        <v>0.33</v>
-      </c>
-      <c r="S2">
-        <v>0.33</v>
-      </c>
-      <c r="T2">
-        <v>0.33</v>
-      </c>
-      <c r="U2">
-        <v>0.33</v>
-      </c>
-      <c r="V2">
-        <v>0.33</v>
-      </c>
-      <c r="W2">
-        <v>0.33</v>
-      </c>
-      <c r="X2">
-        <v>0.33</v>
-      </c>
-      <c r="Y2">
-        <v>0.33</v>
-      </c>
-      <c r="Z2">
-        <v>0.33</v>
-      </c>
-      <c r="AA2">
-        <v>0.33</v>
-      </c>
-      <c r="AB2">
-        <v>0.33</v>
-      </c>
-      <c r="AC2">
-        <v>0.33</v>
-      </c>
-      <c r="AD2">
-        <v>0.33</v>
-      </c>
-      <c r="AE2">
-        <v>0.33</v>
-      </c>
-      <c r="AF2">
-        <v>0.33</v>
-      </c>
-      <c r="AG2">
-        <v>0.33</v>
-      </c>
-      <c r="AH2">
-        <v>0.33</v>
-      </c>
-      <c r="AI2">
-        <v>0.33</v>
-      </c>
-      <c r="AJ2">
-        <v>0.33</v>
-      </c>
-      <c r="AK2">
-        <v>0.33</v>
-      </c>
-      <c r="AL2">
-        <v>0.33</v>
-      </c>
-      <c r="AM2">
-        <v>0.33</v>
-      </c>
-      <c r="AN2">
-        <v>0.33</v>
-      </c>
-      <c r="AO2">
-        <v>0.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B0EEEB-414D-476F-A260-6832C04460E9}">
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,275 +477,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2">
-        <v>0.5</v>
-      </c>
-      <c r="N2">
-        <v>0.5</v>
-      </c>
-      <c r="O2">
-        <v>0.5</v>
-      </c>
-      <c r="P2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <v>0.5</v>
-      </c>
-      <c r="T2">
-        <v>0.5</v>
-      </c>
-      <c r="U2">
-        <v>0.5</v>
-      </c>
-      <c r="V2">
-        <v>0.5</v>
-      </c>
-      <c r="W2">
-        <v>0.5</v>
-      </c>
-      <c r="X2">
-        <v>0.5</v>
-      </c>
-      <c r="Y2">
-        <v>0.5</v>
-      </c>
-      <c r="Z2">
-        <v>0.5</v>
-      </c>
-      <c r="AA2">
-        <v>0.5</v>
-      </c>
-      <c r="AB2">
-        <v>0.5</v>
-      </c>
-      <c r="AC2">
-        <v>0.5</v>
-      </c>
-      <c r="AD2">
-        <v>0.5</v>
-      </c>
-      <c r="AE2">
-        <v>0.5</v>
-      </c>
-      <c r="AF2">
-        <v>0.5</v>
-      </c>
-      <c r="AG2">
-        <v>0.5</v>
-      </c>
-      <c r="AH2">
-        <v>0.5</v>
-      </c>
-      <c r="AI2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ2">
-        <v>0.5</v>
-      </c>
-      <c r="AK2">
-        <v>0.5</v>
-      </c>
-      <c r="AL2">
-        <v>0.5</v>
-      </c>
-      <c r="AM2">
-        <v>0.5</v>
-      </c>
-      <c r="AN2">
-        <v>0.5</v>
-      </c>
-      <c r="AO2">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD84C031-D571-4610-A1F4-21E257A5BA1F}">
-  <dimension ref="A1:AO2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2011</v>
-      </c>
-      <c r="C1">
-        <v>2012</v>
-      </c>
-      <c r="D1">
-        <v>2013</v>
-      </c>
-      <c r="E1">
-        <v>2014</v>
-      </c>
-      <c r="F1">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2016</v>
-      </c>
-      <c r="H1">
-        <v>2017</v>
-      </c>
-      <c r="I1">
-        <v>2018</v>
-      </c>
-      <c r="J1">
-        <v>2019</v>
-      </c>
-      <c r="K1">
-        <v>2020</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
-      </c>
-      <c r="M1">
-        <v>2022</v>
-      </c>
-      <c r="N1">
-        <v>2023</v>
-      </c>
-      <c r="O1">
-        <v>2024</v>
-      </c>
-      <c r="P1">
-        <v>2025</v>
-      </c>
-      <c r="Q1">
-        <v>2026</v>
-      </c>
-      <c r="R1">
-        <v>2027</v>
-      </c>
-      <c r="S1">
-        <v>2028</v>
-      </c>
-      <c r="T1">
-        <v>2029</v>
-      </c>
-      <c r="U1">
-        <v>2030</v>
-      </c>
-      <c r="V1">
-        <v>2031</v>
-      </c>
-      <c r="W1">
-        <v>2032</v>
-      </c>
-      <c r="X1">
-        <v>2033</v>
-      </c>
-      <c r="Y1">
-        <v>2034</v>
-      </c>
-      <c r="Z1">
-        <v>2035</v>
-      </c>
-      <c r="AA1">
-        <v>2036</v>
-      </c>
-      <c r="AB1">
-        <v>2037</v>
-      </c>
-      <c r="AC1">
-        <v>2038</v>
-      </c>
-      <c r="AD1">
-        <v>2039</v>
-      </c>
-      <c r="AE1">
-        <v>2040</v>
-      </c>
-      <c r="AF1">
-        <v>2041</v>
-      </c>
-      <c r="AG1">
-        <v>2042</v>
-      </c>
-      <c r="AH1">
-        <v>2043</v>
-      </c>
-      <c r="AI1">
-        <v>2044</v>
-      </c>
-      <c r="AJ1">
-        <v>2045</v>
-      </c>
-      <c r="AK1">
-        <v>2046</v>
-      </c>
-      <c r="AL1">
-        <v>2047</v>
-      </c>
-      <c r="AM1">
-        <v>2048</v>
-      </c>
-      <c r="AN1">
-        <v>2049</v>
-      </c>
-      <c r="AO1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.5</v>
